--- a/output/company-emissions-trends.xlsx
+++ b/output/company-emissions-trends.xlsx
@@ -2238,19 +2238,19 @@
         <v>739.4999999999909</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>-3168.000000000018</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>-7075.500000000027</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-10983.00000000004</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-14890.50000000004</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>-18798.00000000006</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -2817,10 +2817,10 @@
         <v>232.4460471933635</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>-40.46474336796382</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>-313.3755339292911</v>
       </c>
       <c r="AO8">
         <v>9739814</v>
@@ -2900,22 +2900,22 @@
         <v>67285</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>-1261665</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>-2590615</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>-3919564.999999999</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>-5248515</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>-6577465</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>-7906414.999999998</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -2995,19 +2995,19 @@
         <v>2105.500000558408</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>-1795.999998883184</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>-5697.499998324776</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>-9598.999997766368</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>-13500.49999720796</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>-17401.99999664955</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -3105,10 +3105,10 @@
         <v>2974.666666665813</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>-39143.66666666773</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>-81262.00000000128</v>
       </c>
     </row>
     <row r="12" spans="1:44">
@@ -3369,16 +3369,16 @@
         <v>121.0000000000009</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>-213.4999999999986</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>-547.9999999999982</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>-882.4999999999977</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>-1216.999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:44">
@@ -3547,16 +3547,16 @@
         <v>3380.125</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>-10677.3125</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>-24734.75</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>-38792.1875</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>-52849.625</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -3915,10 +3915,10 @@
         <v>20.60000000000031</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>-63.79999999999961</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>-148.1999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -4099,22 +4099,22 @@
         <v>1540</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>-927.6666666666652</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>-3395.33333333333</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>-5862.999999999996</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>-8330.666666666661</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>-10798.33333333332</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>-13265.99999999999</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -4191,22 +4191,22 @@
         <v>1315</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>-701.0000008047164</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>-2717.000001609433</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>-4733.000002414149</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>-6749.000003218865</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>-8765.000004023583</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>-10781.0000048283</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -4289,16 +4289,16 @@
         <v>11015.00000044442</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>-15472.99999933338</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>-41960.99999911117</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>-68448.99999888896</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>-94936.99999866675</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -4485,16 +4485,16 @@
         <v>42381.25000018743</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>-6226.124999718857</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>-54833.49999962514</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>-103440.8749995314</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>-152048.2499994377</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -4793,7 +4793,7 @@
         <v>37739.50000000035</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>-40610.79999999958</v>
       </c>
       <c r="AH30">
         <v>477</v>
@@ -5120,19 +5120,19 @@
         <v>13548.39999999997</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>-625.2000000000698</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>-14798.8000000001</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>-28972.40000000014</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>-43146.00000000017</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>-57319.60000000021</v>
       </c>
     </row>
     <row r="34" spans="1:44">
@@ -5280,22 +5280,22 @@
         <v>416.2</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>-2360.449999393869</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>-5137.099998787738</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>-7913.749998181606</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>-10690.39999757547</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>-13467.04999696934</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>-16243.69999636321</v>
       </c>
       <c r="AH35">
         <v>7.199999999999999</v>
@@ -5310,13 +5310,13 @@
         <v>1.614778759951172</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>-0.2469616533984382</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>-2.108702066748048</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>-3.970442480097656</v>
       </c>
     </row>
     <row r="36" spans="1:44">
@@ -5494,19 +5494,19 @@
         <v>84.49999999999864</v>
       </c>
       <c r="AJ37">
-        <v>0</v>
+        <v>-979.0000000000027</v>
       </c>
       <c r="AK37">
-        <v>0</v>
+        <v>-2042.500000000004</v>
       </c>
       <c r="AL37">
-        <v>0</v>
+        <v>-3106.000000000005</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>-4169.500000000007</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>-5233.000000000008</v>
       </c>
     </row>
     <row r="38" spans="1:44">
@@ -5678,19 +5678,19 @@
         <v>1493.599999999999</v>
       </c>
       <c r="AJ39">
-        <v>0</v>
+        <v>-7571.800000000003</v>
       </c>
       <c r="AK39">
-        <v>0</v>
+        <v>-16637.2</v>
       </c>
       <c r="AL39">
-        <v>0</v>
+        <v>-25702.60000000001</v>
       </c>
       <c r="AM39">
-        <v>0</v>
+        <v>-34768.00000000001</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>-43833.40000000001</v>
       </c>
     </row>
     <row r="40" spans="1:44">
@@ -5939,7 +5939,7 @@
         <v>59.66666843297719</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>-6.999997880427372</v>
       </c>
       <c r="AH42">
         <v>19</v>
@@ -6123,10 +6123,10 @@
         <v>18999.99999999721</v>
       </c>
       <c r="AM44">
-        <v>0</v>
+        <v>-150000.0000000035</v>
       </c>
       <c r="AN44">
-        <v>0</v>
+        <v>-319000.0000000042</v>
       </c>
     </row>
     <row r="45" spans="1:44">
@@ -6185,7 +6185,7 @@
         <v>55392.00000000163</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>-14147.99999999814</v>
       </c>
       <c r="AH45">
         <v>10515.00000000001</v>
@@ -6479,13 +6479,13 @@
         <v>3893.999999333329</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>-631.6666675555607</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>-5157.333334444451</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>-9683.000001333341</v>
       </c>
       <c r="AH48">
         <v>17136</v>
@@ -6604,7 +6604,7 @@
         <v>667.0000000000182</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>-1893.999999999978</v>
       </c>
     </row>
     <row r="50" spans="1:42">
@@ -6693,16 +6693,16 @@
         <v>3461.999999999985</v>
       </c>
       <c r="AK50">
-        <v>0</v>
+        <v>-886.5000000000218</v>
       </c>
       <c r="AL50">
-        <v>0</v>
+        <v>-5235.000000000029</v>
       </c>
       <c r="AM50">
-        <v>0</v>
+        <v>-9583.500000000036</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>-13932.00000000004</v>
       </c>
     </row>
     <row r="51" spans="1:42">
@@ -6859,7 +6859,7 @@
         <v>352350.0000023092</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>-117924.9999973057</v>
       </c>
       <c r="AH52">
         <v>2703725.000000385</v>
@@ -6880,7 +6880,7 @@
         <v>352350.0000023092</v>
       </c>
       <c r="AN52">
-        <v>0</v>
+        <v>-117924.9999973057</v>
       </c>
       <c r="AO52">
         <v>3174000</v>
@@ -7008,7 +7008,7 @@
         <v>19999.99999932712</v>
       </c>
       <c r="AN53">
-        <v>0</v>
+        <v>-7000.000000807457</v>
       </c>
     </row>
     <row r="54" spans="1:42">
@@ -7462,16 +7462,16 @@
         <v>9253.489833915373</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>-13788.76524912694</v>
       </c>
       <c r="AE58">
-        <v>0</v>
+        <v>-36831.02033216925</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>-59873.27541521157</v>
       </c>
       <c r="AG58">
-        <v>0</v>
+        <v>-82915.53049825388</v>
       </c>
       <c r="AH58">
         <v>7763</v>
@@ -7584,13 +7584,13 @@
         <v>224.000011716003</v>
       </c>
       <c r="AL59">
-        <v>0</v>
+        <v>-815.9999843786627</v>
       </c>
       <c r="AM59">
-        <v>0</v>
+        <v>-1855.999980473329</v>
       </c>
       <c r="AN59">
-        <v>0</v>
+        <v>-2895.999976567994</v>
       </c>
     </row>
     <row r="60" spans="1:42">
@@ -7735,13 +7735,13 @@
         <v>12500.0000014668</v>
       </c>
       <c r="AL61">
-        <v>0</v>
+        <v>-3833.333331377595</v>
       </c>
       <c r="AM61">
-        <v>0</v>
+        <v>-20166.66666422199</v>
       </c>
       <c r="AN61">
-        <v>0</v>
+        <v>-36499.99999706639</v>
       </c>
     </row>
     <row r="62" spans="1:42">
@@ -7854,16 +7854,16 @@
         <v>4362.999999999978</v>
       </c>
       <c r="AK62">
-        <v>0</v>
+        <v>-916.0000000000327</v>
       </c>
       <c r="AL62">
-        <v>0</v>
+        <v>-6195.000000000044</v>
       </c>
       <c r="AM62">
-        <v>0</v>
+        <v>-11474.00000000005</v>
       </c>
       <c r="AN62">
-        <v>0</v>
+        <v>-16753.00000000007</v>
       </c>
     </row>
     <row r="63" spans="1:42">
@@ -8041,10 +8041,10 @@
         <v>2691.000001922715</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>-20175.99999759661</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>-43042.99999711593</v>
       </c>
       <c r="AH64">
         <v>13</v>
@@ -8053,19 +8053,19 @@
         <v>2.66666703897144</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>-7.66666592205712</v>
       </c>
       <c r="AK64">
-        <v>0</v>
+        <v>-17.99999888308568</v>
       </c>
       <c r="AL64">
-        <v>0</v>
+        <v>-28.33333184411424</v>
       </c>
       <c r="AM64">
-        <v>0</v>
+        <v>-38.6666648051428</v>
       </c>
       <c r="AN64">
-        <v>0</v>
+        <v>-48.99999776617136</v>
       </c>
     </row>
     <row r="65" spans="1:42">
@@ -8118,13 +8118,13 @@
         <v>488.0000000006985</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>-180566.9999999991</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>-361621.9999999988</v>
       </c>
       <c r="AG65">
-        <v>0</v>
+        <v>-542676.9999999986</v>
       </c>
       <c r="AH65">
         <v>4069</v>
@@ -8142,10 +8142,10 @@
         <v>373.0000000000073</v>
       </c>
       <c r="AM65">
-        <v>0</v>
+        <v>-550.9999999999909</v>
       </c>
       <c r="AN65">
-        <v>0</v>
+        <v>-1474.999999999989</v>
       </c>
     </row>
     <row r="66" spans="1:42">
@@ -8240,10 +8240,10 @@
         <v>64.8046875</v>
       </c>
       <c r="AM66">
-        <v>0</v>
+        <v>-8253.234375</v>
       </c>
       <c r="AN66">
-        <v>0</v>
+        <v>-16571.2734375</v>
       </c>
       <c r="AO66">
         <v>8209655</v>
@@ -8566,16 +8566,16 @@
         <v>9207.999999999825</v>
       </c>
       <c r="AK70">
-        <v>0</v>
+        <v>-20930.50000000026</v>
       </c>
       <c r="AL70">
-        <v>0</v>
+        <v>-51069.00000000035</v>
       </c>
       <c r="AM70">
-        <v>0</v>
+        <v>-81207.50000000044</v>
       </c>
       <c r="AN70">
-        <v>0</v>
+        <v>-111346.0000000005</v>
       </c>
     </row>
     <row r="71" spans="1:42">
@@ -8863,19 +8863,19 @@
         <v>17.5</v>
       </c>
       <c r="AJ73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK73">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="AL73">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="AM73">
-        <v>0</v>
+        <v>-56.5</v>
       </c>
       <c r="AN73">
-        <v>0</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="74" spans="1:42">
@@ -9031,16 +9031,16 @@
         <v>6763.666667674144</v>
       </c>
       <c r="AD76">
-        <v>0</v>
+        <v>-4680.999998488784</v>
       </c>
       <c r="AE76">
-        <v>0</v>
+        <v>-16125.66666465171</v>
       </c>
       <c r="AF76">
-        <v>0</v>
+        <v>-27570.33333081464</v>
       </c>
       <c r="AG76">
-        <v>0</v>
+        <v>-39014.99999697757</v>
       </c>
       <c r="AH76">
         <v>6176</v>
@@ -9049,19 +9049,19 @@
         <v>1428.000000000011</v>
       </c>
       <c r="AJ76">
-        <v>0</v>
+        <v>-3319.999999999978</v>
       </c>
       <c r="AK76">
-        <v>0</v>
+        <v>-8067.999999999967</v>
       </c>
       <c r="AL76">
-        <v>0</v>
+        <v>-12815.99999999996</v>
       </c>
       <c r="AM76">
-        <v>0</v>
+        <v>-17563.99999999995</v>
       </c>
       <c r="AN76">
-        <v>0</v>
+        <v>-22311.99999999993</v>
       </c>
     </row>
     <row r="77" spans="1:42">
@@ -9242,16 +9242,16 @@
         <v>209.4244387135385</v>
       </c>
       <c r="AK78">
-        <v>0</v>
+        <v>-178.8633419296923</v>
       </c>
       <c r="AL78">
-        <v>0</v>
+        <v>-567.151122572923</v>
       </c>
       <c r="AM78">
-        <v>0</v>
+        <v>-955.4389032161537</v>
       </c>
       <c r="AN78">
-        <v>0</v>
+        <v>-1343.726683859385</v>
       </c>
     </row>
     <row r="79" spans="1:42">
@@ -9731,10 +9731,10 @@
         <v>95.00000000000091</v>
       </c>
       <c r="AF84">
-        <v>0</v>
+        <v>-13.99999999999886</v>
       </c>
       <c r="AG84">
-        <v>0</v>
+        <v>-122.9999999999986</v>
       </c>
       <c r="AH84">
         <v>30</v>
@@ -9743,19 +9743,19 @@
         <v>2.000000000000014</v>
       </c>
       <c r="AJ84">
-        <v>0</v>
+        <v>-25.99999999999997</v>
       </c>
       <c r="AK84">
-        <v>0</v>
+        <v>-53.99999999999996</v>
       </c>
       <c r="AL84">
-        <v>0</v>
+        <v>-81.99999999999994</v>
       </c>
       <c r="AM84">
-        <v>0</v>
+        <v>-109.9999999999999</v>
       </c>
       <c r="AN84">
-        <v>0</v>
+        <v>-137.9999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:42">
@@ -9805,22 +9805,22 @@
         <v>76033</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>-82977.9999999998</v>
       </c>
       <c r="AC85">
-        <v>0</v>
+        <v>-241988.9999999996</v>
       </c>
       <c r="AD85">
-        <v>0</v>
+        <v>-400999.9999999994</v>
       </c>
       <c r="AE85">
-        <v>0</v>
+        <v>-560010.9999999991</v>
       </c>
       <c r="AF85">
-        <v>0</v>
+        <v>-719021.9999999988</v>
       </c>
       <c r="AG85">
-        <v>0</v>
+        <v>-878032.9999999988</v>
       </c>
       <c r="AH85">
         <v>103</v>
@@ -9835,13 +9835,13 @@
         <v>24.99999999999974</v>
       </c>
       <c r="AL85">
-        <v>0</v>
+        <v>-1.000000000000341</v>
       </c>
       <c r="AM85">
-        <v>0</v>
+        <v>-27.00000000000043</v>
       </c>
       <c r="AN85">
-        <v>0</v>
+        <v>-53.00000000000051</v>
       </c>
     </row>
     <row r="86" spans="1:42">
@@ -9921,19 +9921,19 @@
         <v>26458.28125</v>
       </c>
       <c r="AJ86">
-        <v>0</v>
+        <v>-34312.578125</v>
       </c>
       <c r="AK86">
-        <v>0</v>
+        <v>-95083.4375</v>
       </c>
       <c r="AL86">
-        <v>0</v>
+        <v>-155854.296875</v>
       </c>
       <c r="AM86">
-        <v>0</v>
+        <v>-216625.15625</v>
       </c>
       <c r="AN86">
-        <v>0</v>
+        <v>-277396.015625</v>
       </c>
       <c r="AO86">
         <v>8305000</v>
@@ -10034,10 +10034,10 @@
         <v>64999.9999986263</v>
       </c>
       <c r="AM87">
-        <v>0</v>
+        <v>-212500.0000017171</v>
       </c>
       <c r="AN87">
-        <v>0</v>
+        <v>-490000.0000020606</v>
       </c>
     </row>
     <row r="88" spans="1:42">
@@ -10423,19 +10423,19 @@
         <v>2657.000000496282</v>
       </c>
       <c r="AJ91">
-        <v>0</v>
+        <v>-7828.999999007436</v>
       </c>
       <c r="AK91">
-        <v>0</v>
+        <v>-18314.99999851115</v>
       </c>
       <c r="AL91">
-        <v>0</v>
+        <v>-28800.99999801487</v>
       </c>
       <c r="AM91">
-        <v>0</v>
+        <v>-39286.99999751859</v>
       </c>
       <c r="AN91">
-        <v>0</v>
+        <v>-49772.99999702231</v>
       </c>
     </row>
     <row r="92" spans="1:42">
@@ -10545,19 +10545,19 @@
         <v>973333.3333331151</v>
       </c>
       <c r="AJ92">
-        <v>0</v>
+        <v>-1383333.33333377</v>
       </c>
       <c r="AK92">
-        <v>0</v>
+        <v>-3740000.000000655</v>
       </c>
       <c r="AL92">
-        <v>0</v>
+        <v>-6096666.66666754</v>
       </c>
       <c r="AM92">
-        <v>0</v>
+        <v>-8453333.333334424</v>
       </c>
       <c r="AN92">
-        <v>0</v>
+        <v>-10810000.00000131</v>
       </c>
     </row>
     <row r="93" spans="1:42">
@@ -10851,19 +10851,19 @@
         <v>4825.6162109375</v>
       </c>
       <c r="AJ95">
-        <v>0</v>
+        <v>-690.767578125</v>
       </c>
       <c r="AK95">
-        <v>0</v>
+        <v>-6207.1513671875</v>
       </c>
       <c r="AL95">
-        <v>0</v>
+        <v>-11723.53515625</v>
       </c>
       <c r="AM95">
-        <v>0</v>
+        <v>-17239.9189453125</v>
       </c>
       <c r="AN95">
-        <v>0</v>
+        <v>-22756.302734375</v>
       </c>
     </row>
     <row r="96" spans="1:42">
@@ -10967,7 +10967,7 @@
         <v>3499.999999999854</v>
       </c>
       <c r="AN96">
-        <v>0</v>
+        <v>-9000.000000000175</v>
       </c>
     </row>
     <row r="97" spans="1:44">
@@ -11077,13 +11077,13 @@
         <v>5655.961008071899</v>
       </c>
       <c r="AL97">
-        <v>0</v>
+        <v>-9574.385322570801</v>
       </c>
       <c r="AM97">
-        <v>0</v>
+        <v>-24804.7316532135</v>
       </c>
       <c r="AN97">
-        <v>0</v>
+        <v>-40035.0779838562</v>
       </c>
     </row>
     <row r="98" spans="1:44">
@@ -11299,22 +11299,22 @@
         <v>446</v>
       </c>
       <c r="AI100">
-        <v>0</v>
+        <v>-371.3333333333358</v>
       </c>
       <c r="AJ100">
-        <v>0</v>
+        <v>-1188.666666666672</v>
       </c>
       <c r="AK100">
-        <v>0</v>
+        <v>-2006.000000000007</v>
       </c>
       <c r="AL100">
-        <v>0</v>
+        <v>-2823.333333333343</v>
       </c>
       <c r="AM100">
-        <v>0</v>
+        <v>-3640.666666666679</v>
       </c>
       <c r="AN100">
-        <v>0</v>
+        <v>-4458.000000000015</v>
       </c>
     </row>
     <row r="101" spans="1:44">
@@ -11492,19 +11492,19 @@
         <v>2142.333333333333</v>
       </c>
       <c r="AJ102">
-        <v>0</v>
+        <v>-827.3333333333339</v>
       </c>
       <c r="AK102">
-        <v>0</v>
+        <v>-3797</v>
       </c>
       <c r="AL102">
-        <v>0</v>
+        <v>-6766.666666666668</v>
       </c>
       <c r="AM102">
-        <v>0</v>
+        <v>-9736.333333333336</v>
       </c>
       <c r="AN102">
-        <v>0</v>
+        <v>-12706</v>
       </c>
     </row>
     <row r="103" spans="1:44">
@@ -11581,19 +11581,19 @@
         <v>0.04442312486713185</v>
       </c>
       <c r="AJ103">
-        <v>0</v>
+        <v>-0.9333653126993022</v>
       </c>
       <c r="AK103">
-        <v>0</v>
+        <v>-1.911153750265736</v>
       </c>
       <c r="AL103">
-        <v>0</v>
+        <v>-2.88894218783217</v>
       </c>
       <c r="AM103">
-        <v>0</v>
+        <v>-3.866730625398604</v>
       </c>
       <c r="AN103">
-        <v>0</v>
+        <v>-4.844519062965039</v>
       </c>
       <c r="AP103">
         <v>2</v>
@@ -11696,10 +11696,10 @@
         <v>66089.80000000121</v>
       </c>
       <c r="AF105">
-        <v>0</v>
+        <v>-4053.249999998487</v>
       </c>
       <c r="AG105">
-        <v>0</v>
+        <v>-74196.29999999818</v>
       </c>
       <c r="AH105">
         <v>1694</v>
@@ -11711,16 +11711,16 @@
         <v>201</v>
       </c>
       <c r="AK105">
-        <v>0</v>
+        <v>-545.5</v>
       </c>
       <c r="AL105">
-        <v>0</v>
+        <v>-1292</v>
       </c>
       <c r="AM105">
-        <v>0</v>
+        <v>-2038.5</v>
       </c>
       <c r="AN105">
-        <v>0</v>
+        <v>-2785</v>
       </c>
     </row>
     <row r="106" spans="1:44">
@@ -11785,7 +11785,7 @@
         <v>235192.4999999977</v>
       </c>
       <c r="AG106">
-        <v>0</v>
+        <v>-47272.00000000279</v>
       </c>
       <c r="AH106">
         <v>148594</v>
@@ -11990,7 +11990,7 @@
         <v>1600.000000860455</v>
       </c>
       <c r="AN108">
-        <v>0</v>
+        <v>-635.9999989674543</v>
       </c>
     </row>
     <row r="109" spans="1:44">
@@ -12117,19 +12117,19 @@
         <v>1508.000000000002</v>
       </c>
       <c r="AC110">
-        <v>0</v>
+        <v>-432.9999999999964</v>
       </c>
       <c r="AD110">
-        <v>0</v>
+        <v>-2373.999999999995</v>
       </c>
       <c r="AE110">
-        <v>0</v>
+        <v>-4314.999999999993</v>
       </c>
       <c r="AF110">
-        <v>0</v>
+        <v>-6255.999999999991</v>
       </c>
       <c r="AG110">
-        <v>0</v>
+        <v>-8196.999999999989</v>
       </c>
       <c r="AH110">
         <v>113</v>
@@ -12138,19 +12138,19 @@
         <v>43.00000000000006</v>
       </c>
       <c r="AJ110">
-        <v>0</v>
+        <v>-26.99999999999989</v>
       </c>
       <c r="AK110">
-        <v>0</v>
+        <v>-96.99999999999983</v>
       </c>
       <c r="AL110">
-        <v>0</v>
+        <v>-166.9999999999998</v>
       </c>
       <c r="AM110">
-        <v>0</v>
+        <v>-236.9999999999997</v>
       </c>
       <c r="AN110">
-        <v>0</v>
+        <v>-306.9999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:44">
@@ -12411,16 +12411,16 @@
         <v>908.2000002739792</v>
       </c>
       <c r="AK113">
-        <v>0</v>
+        <v>-337.199999589031</v>
       </c>
       <c r="AL113">
-        <v>0</v>
+        <v>-1582.599999452042</v>
       </c>
       <c r="AM113">
-        <v>0</v>
+        <v>-2827.999999315052</v>
       </c>
       <c r="AN113">
-        <v>0</v>
+        <v>-4073.399999178062</v>
       </c>
     </row>
     <row r="114" spans="1:42">
@@ -12582,19 +12582,19 @@
         <v>30017.00000000003</v>
       </c>
       <c r="AC116">
-        <v>0</v>
+        <v>-6354.999999999942</v>
       </c>
       <c r="AD116">
-        <v>0</v>
+        <v>-42726.99999999991</v>
       </c>
       <c r="AE116">
-        <v>0</v>
+        <v>-79098.99999999988</v>
       </c>
       <c r="AF116">
-        <v>0</v>
+        <v>-115470.9999999999</v>
       </c>
       <c r="AG116">
-        <v>0</v>
+        <v>-151842.9999999998</v>
       </c>
       <c r="AH116">
         <v>39</v>
@@ -12795,10 +12795,10 @@
         <v>2235.000000000116</v>
       </c>
       <c r="AF119">
-        <v>0</v>
+        <v>-2206.999999999854</v>
       </c>
       <c r="AG119">
-        <v>0</v>
+        <v>-6648.999999999825</v>
       </c>
       <c r="AH119">
         <v>3408</v>
@@ -12810,16 +12810,16 @@
         <v>757.9999999999945</v>
       </c>
       <c r="AK119">
-        <v>0</v>
+        <v>-567.0000000000082</v>
       </c>
       <c r="AL119">
-        <v>0</v>
+        <v>-1892.000000000011</v>
       </c>
       <c r="AM119">
-        <v>0</v>
+        <v>-3217.000000000014</v>
       </c>
       <c r="AN119">
-        <v>0</v>
+        <v>-4542.000000000016</v>
       </c>
     </row>
     <row r="120" spans="1:42">
@@ -12905,13 +12905,13 @@
         <v>152.3499999999858</v>
       </c>
       <c r="AL120">
-        <v>0</v>
+        <v>-1045.200000000019</v>
       </c>
       <c r="AM120">
-        <v>0</v>
+        <v>-2242.750000000024</v>
       </c>
       <c r="AN120">
-        <v>0</v>
+        <v>-3440.300000000028</v>
       </c>
     </row>
     <row r="121" spans="1:42">
@@ -13133,31 +13133,31 @@
         <v>135.0750000000071</v>
       </c>
       <c r="AF123">
-        <v>0</v>
+        <v>-1261.041999999991</v>
       </c>
       <c r="AG123">
-        <v>0</v>
+        <v>-2657.15899999999</v>
       </c>
       <c r="AH123">
         <v>5.5</v>
       </c>
       <c r="AI123">
-        <v>0</v>
+        <v>-0.1999999999999957</v>
       </c>
       <c r="AJ123">
-        <v>0</v>
+        <v>-5.899999999999991</v>
       </c>
       <c r="AK123">
-        <v>0</v>
+        <v>-11.59999999999999</v>
       </c>
       <c r="AL123">
-        <v>0</v>
+        <v>-17.29999999999998</v>
       </c>
       <c r="AM123">
-        <v>0</v>
+        <v>-22.99999999999998</v>
       </c>
       <c r="AN123">
-        <v>0</v>
+        <v>-28.69999999999997</v>
       </c>
     </row>
     <row r="124" spans="1:42">
@@ -13329,16 +13329,16 @@
         <v>15831.49999837845</v>
       </c>
       <c r="AD125">
-        <v>0</v>
+        <v>-78637.75000243232</v>
       </c>
       <c r="AE125">
-        <v>0</v>
+        <v>-173107.0000032431</v>
       </c>
       <c r="AF125">
-        <v>0</v>
+        <v>-267576.2500040539</v>
       </c>
       <c r="AG125">
-        <v>0</v>
+        <v>-362045.5000048646</v>
       </c>
       <c r="AH125">
         <v>5128</v>
@@ -13353,13 +13353,13 @@
         <v>1254.400003081812</v>
       </c>
       <c r="AL125">
-        <v>0</v>
+        <v>-36.79999589091676</v>
       </c>
       <c r="AM125">
-        <v>0</v>
+        <v>-1327.999994863646</v>
       </c>
       <c r="AN125">
-        <v>0</v>
+        <v>-2619.199993836375</v>
       </c>
     </row>
     <row r="126" spans="1:42">
@@ -13519,19 +13519,19 @@
         <v>31.33333282294575</v>
       </c>
       <c r="AJ127">
-        <v>0</v>
+        <v>-664.3333343541085</v>
       </c>
       <c r="AK127">
-        <v>0</v>
+        <v>-1360.000001531163</v>
       </c>
       <c r="AL127">
-        <v>0</v>
+        <v>-2055.666668708217</v>
       </c>
       <c r="AM127">
-        <v>0</v>
+        <v>-2751.333335885271</v>
       </c>
       <c r="AN127">
-        <v>0</v>
+        <v>-3447.000003062325</v>
       </c>
     </row>
     <row r="128" spans="1:42">
@@ -13602,16 +13602,16 @@
         <v>5567.999999999978</v>
       </c>
       <c r="AK128">
-        <v>0</v>
+        <v>-2765.000000000033</v>
       </c>
       <c r="AL128">
-        <v>0</v>
+        <v>-11098.00000000004</v>
       </c>
       <c r="AM128">
-        <v>0</v>
+        <v>-19431.00000000006</v>
       </c>
       <c r="AN128">
-        <v>0</v>
+        <v>-27764.00000000007</v>
       </c>
     </row>
     <row r="129" spans="1:42">
@@ -13700,7 +13700,7 @@
         <v>255.9999999999845</v>
       </c>
       <c r="AN129">
-        <v>0</v>
+        <v>-169.6000000000186</v>
       </c>
     </row>
     <row r="130" spans="1:42">
@@ -13762,10 +13762,10 @@
         <v>0.2000000000000668</v>
       </c>
       <c r="AF130">
-        <v>0</v>
+        <v>-10.34999999999992</v>
       </c>
       <c r="AG130">
-        <v>0</v>
+        <v>-20.8999999999999</v>
       </c>
       <c r="AH130">
         <v>42.4</v>
@@ -13783,10 +13783,10 @@
         <v>0.2000000000000668</v>
       </c>
       <c r="AM130">
-        <v>0</v>
+        <v>-10.34999999999992</v>
       </c>
       <c r="AN130">
-        <v>0</v>
+        <v>-20.8999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:42">
@@ -13860,13 +13860,13 @@
         <v>5.329070518200751E-15</v>
       </c>
       <c r="AL131">
-        <v>0</v>
+        <v>-1.999999999999993</v>
       </c>
       <c r="AM131">
-        <v>0</v>
+        <v>-3.999999999999991</v>
       </c>
       <c r="AN131">
-        <v>0</v>
+        <v>-5.999999999999989</v>
       </c>
     </row>
     <row r="132" spans="1:42">
@@ -13940,16 +13940,16 @@
         <v>4866.199998691358</v>
       </c>
       <c r="AK132">
-        <v>0</v>
+        <v>-938.2000019629631</v>
       </c>
       <c r="AL132">
-        <v>0</v>
+        <v>-6742.600002617284</v>
       </c>
       <c r="AM132">
-        <v>0</v>
+        <v>-12547.00000327161</v>
       </c>
       <c r="AN132">
-        <v>0</v>
+        <v>-18351.40000392593</v>
       </c>
     </row>
     <row r="133" spans="1:42">
@@ -14040,19 +14040,19 @@
         <v>1723.000000000002</v>
       </c>
       <c r="AC134">
-        <v>0</v>
+        <v>-794.9999999999964</v>
       </c>
       <c r="AD134">
-        <v>0</v>
+        <v>-3312.999999999995</v>
       </c>
       <c r="AE134">
-        <v>0</v>
+        <v>-5830.999999999993</v>
       </c>
       <c r="AF134">
-        <v>0</v>
+        <v>-8348.999999999991</v>
       </c>
       <c r="AG134">
-        <v>0</v>
+        <v>-10866.99999999999</v>
       </c>
       <c r="AH134">
         <v>2225</v>
@@ -14061,19 +14061,19 @@
         <v>381.0000000000009</v>
       </c>
       <c r="AJ134">
-        <v>0</v>
+        <v>-1462.999999999998</v>
       </c>
       <c r="AK134">
-        <v>0</v>
+        <v>-3306.999999999997</v>
       </c>
       <c r="AL134">
-        <v>0</v>
+        <v>-5150.999999999996</v>
       </c>
       <c r="AM134">
-        <v>0</v>
+        <v>-6994.999999999996</v>
       </c>
       <c r="AN134">
-        <v>0</v>
+        <v>-8838.999999999995</v>
       </c>
     </row>
     <row r="135" spans="1:42">
@@ -14472,7 +14472,7 @@
         <v>131.9999983537799</v>
       </c>
       <c r="AN140">
-        <v>0</v>
+        <v>-11.0000019754641</v>
       </c>
     </row>
     <row r="141" spans="1:42">
@@ -14629,10 +14629,10 @@
         <v>912.3333324444466</v>
       </c>
       <c r="AM142">
-        <v>0</v>
+        <v>-1280.333334444442</v>
       </c>
       <c r="AN142">
-        <v>0</v>
+        <v>-3473.00000133333</v>
       </c>
     </row>
     <row r="143" spans="1:42">
@@ -14709,10 +14709,10 @@
         <v>2086.999999999993</v>
       </c>
       <c r="AM143">
-        <v>0</v>
+        <v>-576.0000000000091</v>
       </c>
       <c r="AN143">
-        <v>0</v>
+        <v>-3239.000000000011</v>
       </c>
     </row>
     <row r="144" spans="1:42">
@@ -15156,7 +15156,7 @@
         <v>2.121500000000076</v>
       </c>
       <c r="AN149">
-        <v>0</v>
+        <v>-5.587999999999909</v>
       </c>
     </row>
     <row r="150" spans="1:44">
@@ -15929,7 +15929,7 @@
         <v>4.499999999999432</v>
       </c>
       <c r="AN159">
-        <v>0</v>
+        <v>-76.00000000000068</v>
       </c>
     </row>
     <row r="160" spans="1:44">
@@ -16172,7 +16172,7 @@
         <v>109569.4999999851</v>
       </c>
       <c r="AG162">
-        <v>0</v>
+        <v>-300325.2000000179</v>
       </c>
       <c r="AH162">
         <v>10636</v>
@@ -16187,13 +16187,13 @@
         <v>1125.699999999983</v>
       </c>
       <c r="AL162">
-        <v>0</v>
+        <v>-2044.400000000023</v>
       </c>
       <c r="AM162">
-        <v>0</v>
+        <v>-5214.500000000029</v>
       </c>
       <c r="AN162">
-        <v>0</v>
+        <v>-8384.600000000035</v>
       </c>
     </row>
     <row r="163" spans="1:42">
@@ -16255,16 +16255,16 @@
         <v>861.47265625</v>
       </c>
       <c r="AD163">
-        <v>0</v>
+        <v>-3384.703125</v>
       </c>
       <c r="AE163">
-        <v>0</v>
+        <v>-7630.87890625</v>
       </c>
       <c r="AF163">
-        <v>0</v>
+        <v>-11877.0546875</v>
       </c>
       <c r="AG163">
-        <v>0</v>
+        <v>-16123.23046875</v>
       </c>
       <c r="AH163">
         <v>5636.394137859344</v>
@@ -16365,13 +16365,13 @@
         <v>500.4499999999953</v>
       </c>
       <c r="AL164">
-        <v>0</v>
+        <v>-149.5000000000064</v>
       </c>
       <c r="AM164">
-        <v>0</v>
+        <v>-799.450000000008</v>
       </c>
       <c r="AN164">
-        <v>0</v>
+        <v>-1449.40000000001</v>
       </c>
     </row>
     <row r="165" spans="1:42">
@@ -16685,7 +16685,7 @@
         <v>5.000000500864871</v>
       </c>
       <c r="AN168">
-        <v>0</v>
+        <v>-206.5999993989622</v>
       </c>
     </row>
     <row r="169" spans="1:42">
@@ -16794,19 +16794,19 @@
         <v>1666.666666317023</v>
       </c>
       <c r="AC170">
-        <v>0</v>
+        <v>-1166.666667365954</v>
       </c>
       <c r="AD170">
-        <v>0</v>
+        <v>-4000.000001048931</v>
       </c>
       <c r="AE170">
-        <v>0</v>
+        <v>-6833.333334731908</v>
       </c>
       <c r="AF170">
-        <v>0</v>
+        <v>-9666.666668414884</v>
       </c>
       <c r="AG170">
-        <v>0</v>
+        <v>-12500.00000209786</v>
       </c>
       <c r="AH170">
         <v>4500</v>
@@ -16901,19 +16901,19 @@
         <v>2.699999999999989</v>
       </c>
       <c r="AJ171">
-        <v>0</v>
+        <v>-14.10000000000002</v>
       </c>
       <c r="AK171">
-        <v>0</v>
+        <v>-30.90000000000003</v>
       </c>
       <c r="AL171">
-        <v>0</v>
+        <v>-47.70000000000005</v>
       </c>
       <c r="AM171">
-        <v>0</v>
+        <v>-64.50000000000006</v>
       </c>
       <c r="AN171">
-        <v>0</v>
+        <v>-81.30000000000007</v>
       </c>
     </row>
     <row r="172" spans="1:42">
@@ -17144,7 +17144,7 @@
         <v>444.8000000000175</v>
       </c>
       <c r="AG174">
-        <v>0</v>
+        <v>-1114.699999999979</v>
       </c>
       <c r="AH174">
         <v>47</v>
@@ -17162,10 +17162,10 @@
         <v>7.000000000000057</v>
       </c>
       <c r="AM174">
-        <v>0</v>
+        <v>-2.999999999999929</v>
       </c>
       <c r="AN174">
-        <v>0</v>
+        <v>-12.99999999999991</v>
       </c>
     </row>
     <row r="175" spans="1:42">
@@ -17242,19 +17242,19 @@
         <v>705.3333342894821</v>
       </c>
       <c r="AJ175">
-        <v>0</v>
+        <v>-18.33333142103584</v>
       </c>
       <c r="AK175">
-        <v>0</v>
+        <v>-741.9999971315538</v>
       </c>
       <c r="AL175">
-        <v>0</v>
+        <v>-1465.666662842072</v>
       </c>
       <c r="AM175">
-        <v>0</v>
+        <v>-2189.33332855259</v>
       </c>
       <c r="AN175">
-        <v>0</v>
+        <v>-2912.999994263108</v>
       </c>
     </row>
     <row r="176" spans="1:42">
@@ -17849,7 +17849,7 @@
         <v>89.49999999999773</v>
       </c>
       <c r="AN183">
-        <v>0</v>
+        <v>-88.00000000000273</v>
       </c>
     </row>
     <row r="184" spans="1:40">
@@ -18012,22 +18012,22 @@
         <v>2000</v>
       </c>
       <c r="AI185">
-        <v>0</v>
+        <v>-180000.0000000001</v>
       </c>
       <c r="AJ185">
-        <v>0</v>
+        <v>-362000.0000000002</v>
       </c>
       <c r="AK185">
-        <v>0</v>
+        <v>-544000.0000000002</v>
       </c>
       <c r="AL185">
-        <v>0</v>
+        <v>-726000.0000000003</v>
       </c>
       <c r="AM185">
-        <v>0</v>
+        <v>-908000.0000000005</v>
       </c>
       <c r="AN185">
-        <v>0</v>
+        <v>-1090000</v>
       </c>
     </row>
     <row r="186" spans="1:40">
@@ -18124,34 +18124,34 @@
         <v>296.0000000000055</v>
       </c>
       <c r="AE187">
-        <v>0</v>
+        <v>-923.9999999999927</v>
       </c>
       <c r="AF187">
-        <v>0</v>
+        <v>-2143.999999999991</v>
       </c>
       <c r="AG187">
-        <v>0</v>
+        <v>-3363.999999999989</v>
       </c>
       <c r="AH187">
         <v>75</v>
       </c>
       <c r="AI187">
-        <v>0</v>
+        <v>-215.9999999999999</v>
       </c>
       <c r="AJ187">
-        <v>0</v>
+        <v>-506.9999999999999</v>
       </c>
       <c r="AK187">
-        <v>0</v>
+        <v>-797.9999999999998</v>
       </c>
       <c r="AL187">
-        <v>0</v>
+        <v>-1089</v>
       </c>
       <c r="AM187">
-        <v>0</v>
+        <v>-1380</v>
       </c>
       <c r="AN187">
-        <v>0</v>
+        <v>-1671</v>
       </c>
     </row>
     <row r="188" spans="1:40">
@@ -18332,16 +18332,16 @@
         <v>109.0000000000009</v>
       </c>
       <c r="AK189">
-        <v>0</v>
+        <v>-353.9999999999986</v>
       </c>
       <c r="AL189">
-        <v>0</v>
+        <v>-816.9999999999982</v>
       </c>
       <c r="AM189">
-        <v>0</v>
+        <v>-1279.999999999998</v>
       </c>
       <c r="AN189">
-        <v>0</v>
+        <v>-1742.999999999997</v>
       </c>
     </row>
     <row r="190" spans="1:40">
@@ -18439,13 +18439,13 @@
         <v>10.9000000000005</v>
       </c>
       <c r="AL190">
-        <v>0</v>
+        <v>-3.533333333332664</v>
       </c>
       <c r="AM190">
-        <v>0</v>
+        <v>-17.96666666666583</v>
       </c>
       <c r="AN190">
-        <v>0</v>
+        <v>-32.399999999999</v>
       </c>
     </row>
     <row r="191" spans="1:40">
@@ -18957,16 +18957,16 @@
         <v>896.9999991587574</v>
       </c>
       <c r="AD197">
-        <v>0</v>
+        <v>-70.50000126186387</v>
       </c>
       <c r="AE197">
-        <v>0</v>
+        <v>-1038.000001682485</v>
       </c>
       <c r="AF197">
-        <v>0</v>
+        <v>-2005.500002103106</v>
       </c>
       <c r="AG197">
-        <v>0</v>
+        <v>-2973.000002523728</v>
       </c>
       <c r="AH197">
         <v>2832</v>
@@ -19037,16 +19037,16 @@
         <v>399.9999999962747</v>
       </c>
       <c r="AD198">
-        <v>0</v>
+        <v>-2235074.000000006</v>
       </c>
       <c r="AE198">
-        <v>0</v>
+        <v>-4470548.000000007</v>
       </c>
       <c r="AF198">
-        <v>0</v>
+        <v>-6706022.000000009</v>
       </c>
       <c r="AG198">
-        <v>0</v>
+        <v>-8941496.000000011</v>
       </c>
       <c r="AH198">
         <v>294651</v>
@@ -19352,10 +19352,10 @@
         <v>150.3333331539125</v>
       </c>
       <c r="AM201">
-        <v>0</v>
+        <v>-383.8333335576094</v>
       </c>
       <c r="AN201">
-        <v>0</v>
+        <v>-918.0000002691313</v>
       </c>
     </row>
     <row r="202" spans="1:42">
@@ -19530,10 +19530,10 @@
         <v>432.0000000000045</v>
       </c>
       <c r="AM203">
-        <v>0</v>
+        <v>-39.99999999999454</v>
       </c>
       <c r="AN203">
-        <v>0</v>
+        <v>-511.9999999999936</v>
       </c>
       <c r="AO203">
         <v>8121201</v>
@@ -19663,7 +19663,7 @@
         <v>176.0000042453839</v>
       </c>
       <c r="AN205">
-        <v>0</v>
+        <v>-515.7999949055393</v>
       </c>
     </row>
     <row r="206" spans="1:42">
@@ -19850,22 +19850,22 @@
         <v>0.09999999999999076</v>
       </c>
       <c r="AI207">
-        <v>0</v>
+        <v>-3.800000000000018</v>
       </c>
       <c r="AJ207">
-        <v>0</v>
+        <v>-7.700000000000028</v>
       </c>
       <c r="AK207">
-        <v>0</v>
+        <v>-11.60000000000004</v>
       </c>
       <c r="AL207">
-        <v>0</v>
+        <v>-15.50000000000005</v>
       </c>
       <c r="AM207">
-        <v>0</v>
+        <v>-19.40000000000006</v>
       </c>
       <c r="AN207">
-        <v>0</v>
+        <v>-23.30000000000006</v>
       </c>
       <c r="AO207">
         <v>20537</v>
@@ -19930,13 +19930,13 @@
         <v>145.0000000000055</v>
       </c>
       <c r="AE208">
-        <v>0</v>
+        <v>-1449.999999999993</v>
       </c>
       <c r="AF208">
-        <v>0</v>
+        <v>-3044.999999999991</v>
       </c>
       <c r="AG208">
-        <v>0</v>
+        <v>-4639.999999999989</v>
       </c>
       <c r="AH208">
         <v>916</v>
@@ -20268,10 +20268,10 @@
         <v>869.2000019980815</v>
       </c>
       <c r="AM212">
-        <v>0</v>
+        <v>-511.9999975023984</v>
       </c>
       <c r="AN212">
-        <v>0</v>
+        <v>-1893.199997002877</v>
       </c>
     </row>
     <row r="213" spans="1:44">
@@ -20336,7 +20336,7 @@
         <v>8800.999999998545</v>
       </c>
       <c r="AG213">
-        <v>0</v>
+        <v>-12000.00000000175</v>
       </c>
       <c r="AH213">
         <v>4364</v>
@@ -20671,22 +20671,22 @@
         <v>100707.0000000005</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>-94757.9999999993</v>
       </c>
       <c r="AC217">
-        <v>0</v>
+        <v>-290222.9999999991</v>
       </c>
       <c r="AD217">
-        <v>0</v>
+        <v>-485687.9999999988</v>
       </c>
       <c r="AE217">
-        <v>0</v>
+        <v>-681152.9999999986</v>
       </c>
       <c r="AF217">
-        <v>0</v>
+        <v>-876617.9999999984</v>
       </c>
       <c r="AG217">
-        <v>0</v>
+        <v>-1072082.999999998</v>
       </c>
       <c r="AH217">
         <v>5956.000000000004</v>
@@ -20888,19 +20888,19 @@
         <v>4366.000000007451</v>
       </c>
       <c r="AC219">
-        <v>0</v>
+        <v>-11247587.99999999</v>
       </c>
       <c r="AD219">
-        <v>0</v>
+        <v>-22499541.99999998</v>
       </c>
       <c r="AE219">
-        <v>0</v>
+        <v>-33751495.99999997</v>
       </c>
       <c r="AF219">
-        <v>0</v>
+        <v>-45003449.99999996</v>
       </c>
       <c r="AG219">
-        <v>0</v>
+        <v>-56255403.99999996</v>
       </c>
       <c r="AH219">
         <v>367</v>
@@ -20921,7 +20921,7 @@
         <v>37.00000000000057</v>
       </c>
       <c r="AN219">
-        <v>0</v>
+        <v>-28.99999999999932</v>
       </c>
     </row>
     <row r="220" spans="1:44">
@@ -21084,16 +21084,16 @@
         <v>16.5000002011576</v>
       </c>
       <c r="AK221">
-        <v>0</v>
+        <v>-15.24999969826359</v>
       </c>
       <c r="AL221">
-        <v>0</v>
+        <v>-46.99999959768479</v>
       </c>
       <c r="AM221">
-        <v>0</v>
+        <v>-78.74999949710599</v>
       </c>
       <c r="AN221">
-        <v>0</v>
+        <v>-110.4999993965272</v>
       </c>
     </row>
     <row r="222" spans="1:44">
@@ -21369,19 +21369,19 @@
         <v>30666.66666666666</v>
       </c>
       <c r="AJ224">
-        <v>0</v>
+        <v>-3666.666666666686</v>
       </c>
       <c r="AK224">
-        <v>0</v>
+        <v>-38000.00000000003</v>
       </c>
       <c r="AL224">
-        <v>0</v>
+        <v>-72333.33333333337</v>
       </c>
       <c r="AM224">
-        <v>0</v>
+        <v>-106666.6666666667</v>
       </c>
       <c r="AN224">
-        <v>0</v>
+        <v>-141000.0000000001</v>
       </c>
     </row>
     <row r="225" spans="1:40">
@@ -21498,22 +21498,22 @@
         <v>5371</v>
       </c>
       <c r="AB227">
-        <v>0</v>
+        <v>-503.5999960018535</v>
       </c>
       <c r="AC227">
-        <v>0</v>
+        <v>-6378.199992003707</v>
       </c>
       <c r="AD227">
-        <v>0</v>
+        <v>-12252.79998800556</v>
       </c>
       <c r="AE227">
-        <v>0</v>
+        <v>-18127.39998400741</v>
       </c>
       <c r="AF227">
-        <v>0</v>
+        <v>-24001.99998000927</v>
       </c>
       <c r="AG227">
-        <v>0</v>
+        <v>-29876.59997601112</v>
       </c>
       <c r="AH227">
         <v>3526</v>
@@ -21693,19 +21693,19 @@
         <v>26919.64999999967</v>
       </c>
       <c r="AC230">
-        <v>0</v>
+        <v>-151012.7000000007</v>
       </c>
       <c r="AD230">
-        <v>0</v>
+        <v>-328945.050000001</v>
       </c>
       <c r="AE230">
-        <v>0</v>
+        <v>-506877.4000000013</v>
       </c>
       <c r="AF230">
-        <v>0</v>
+        <v>-684809.7500000016</v>
       </c>
       <c r="AG230">
-        <v>0</v>
+        <v>-862742.100000002</v>
       </c>
       <c r="AH230">
         <v>195.1</v>
@@ -21776,16 +21776,16 @@
         <v>899.0000000001164</v>
       </c>
       <c r="AD231">
-        <v>0</v>
+        <v>-119927.9999999998</v>
       </c>
       <c r="AE231">
-        <v>0</v>
+        <v>-240754.9999999998</v>
       </c>
       <c r="AF231">
-        <v>0</v>
+        <v>-361581.9999999998</v>
       </c>
       <c r="AG231">
-        <v>0</v>
+        <v>-482408.9999999997</v>
       </c>
       <c r="AH231">
         <v>39796</v>
@@ -21975,10 +21975,10 @@
         <v>166.0000005060569</v>
       </c>
       <c r="AM233">
-        <v>0</v>
+        <v>-86.7499993674287</v>
       </c>
       <c r="AN233">
-        <v>0</v>
+        <v>-339.4999992409146</v>
       </c>
     </row>
     <row r="234" spans="1:40">
@@ -22138,19 +22138,19 @@
         <v>0.9000000000000057</v>
       </c>
       <c r="AJ235">
-        <v>0</v>
+        <v>-5.199999999999989</v>
       </c>
       <c r="AK235">
-        <v>0</v>
+        <v>-11.29999999999998</v>
       </c>
       <c r="AL235">
-        <v>0</v>
+        <v>-17.39999999999998</v>
       </c>
       <c r="AM235">
-        <v>0</v>
+        <v>-23.49999999999997</v>
       </c>
       <c r="AN235">
-        <v>0</v>
+        <v>-29.59999999999997</v>
       </c>
     </row>
     <row r="236" spans="1:40">
@@ -22209,19 +22209,19 @@
         <v>1116000.000000007</v>
       </c>
       <c r="AC236">
-        <v>0</v>
+        <v>-17718999.99999999</v>
       </c>
       <c r="AD236">
-        <v>0</v>
+        <v>-36553999.99999998</v>
       </c>
       <c r="AE236">
-        <v>0</v>
+        <v>-55388999.99999997</v>
       </c>
       <c r="AF236">
-        <v>0</v>
+        <v>-74223999.99999997</v>
       </c>
       <c r="AG236">
-        <v>0</v>
+        <v>-93058999.99999996</v>
       </c>
       <c r="AH236">
         <v>15000</v>
@@ -22574,13 +22574,13 @@
         <v>1.500000000000021</v>
       </c>
       <c r="AL240">
-        <v>0</v>
+        <v>-5.999999999999972</v>
       </c>
       <c r="AM240">
-        <v>0</v>
+        <v>-13.49999999999996</v>
       </c>
       <c r="AN240">
-        <v>0</v>
+        <v>-20.99999999999996</v>
       </c>
     </row>
     <row r="241" spans="1:44">
@@ -22746,13 +22746,13 @@
         <v>13500</v>
       </c>
       <c r="AL242">
-        <v>0</v>
+        <v>-28000</v>
       </c>
       <c r="AM242">
-        <v>0</v>
+        <v>-69500</v>
       </c>
       <c r="AN242">
-        <v>0</v>
+        <v>-111000</v>
       </c>
     </row>
     <row r="243" spans="1:44">
@@ -23075,40 +23075,40 @@
         <v>1718.479999999957</v>
       </c>
       <c r="AC246">
-        <v>0</v>
+        <v>-1282.940000000085</v>
       </c>
       <c r="AD246">
-        <v>0</v>
+        <v>-4284.360000000127</v>
       </c>
       <c r="AE246">
-        <v>0</v>
+        <v>-7285.780000000169</v>
       </c>
       <c r="AF246">
-        <v>0</v>
+        <v>-10287.20000000021</v>
       </c>
       <c r="AG246">
-        <v>0</v>
+        <v>-13288.62000000025</v>
       </c>
       <c r="AH246">
         <v>2</v>
       </c>
       <c r="AI246">
-        <v>0</v>
+        <v>-10.64000000000004</v>
       </c>
       <c r="AJ246">
-        <v>0</v>
+        <v>-23.28000000000009</v>
       </c>
       <c r="AK246">
-        <v>0</v>
+        <v>-35.92000000000013</v>
       </c>
       <c r="AL246">
-        <v>0</v>
+        <v>-48.56000000000017</v>
       </c>
       <c r="AM246">
-        <v>0</v>
+        <v>-61.20000000000022</v>
       </c>
       <c r="AN246">
-        <v>0</v>
+        <v>-73.84000000000026</v>
       </c>
     </row>
     <row r="247" spans="1:44">
@@ -23387,22 +23387,22 @@
         <v>334</v>
       </c>
       <c r="AI249">
-        <v>0</v>
+        <v>-177.2499999253832</v>
       </c>
       <c r="AJ249">
-        <v>0</v>
+        <v>-688.4999998507665</v>
       </c>
       <c r="AK249">
-        <v>0</v>
+        <v>-1199.74999977615</v>
       </c>
       <c r="AL249">
-        <v>0</v>
+        <v>-1710.999999701533</v>
       </c>
       <c r="AM249">
-        <v>0</v>
+        <v>-2222.249999626916</v>
       </c>
       <c r="AN249">
-        <v>0</v>
+        <v>-2733.499999552299</v>
       </c>
     </row>
     <row r="250" spans="1:44">
@@ -23701,13 +23701,13 @@
         <v>39002.50000000017</v>
       </c>
       <c r="AE253">
-        <v>0</v>
+        <v>-2972.999999999767</v>
       </c>
       <c r="AF253">
-        <v>0</v>
+        <v>-44948.49999999971</v>
       </c>
       <c r="AG253">
-        <v>0</v>
+        <v>-86923.99999999965</v>
       </c>
       <c r="AH253">
         <v>35022</v>
@@ -23716,19 +23716,19 @@
         <v>13272.49999999999</v>
       </c>
       <c r="AJ253">
-        <v>0</v>
+        <v>-8477.000000000029</v>
       </c>
       <c r="AK253">
-        <v>0</v>
+        <v>-30226.50000000004</v>
       </c>
       <c r="AL253">
-        <v>0</v>
+        <v>-51976.00000000006</v>
       </c>
       <c r="AM253">
-        <v>0</v>
+        <v>-73725.50000000007</v>
       </c>
       <c r="AN253">
-        <v>0</v>
+        <v>-95475.00000000009</v>
       </c>
     </row>
     <row r="254" spans="1:44">
@@ -23781,22 +23781,22 @@
         <v>1860.6</v>
       </c>
       <c r="AB254">
-        <v>0</v>
+        <v>-1018.299999999999</v>
       </c>
       <c r="AC254">
-        <v>0</v>
+        <v>-3897.199999999998</v>
       </c>
       <c r="AD254">
-        <v>0</v>
+        <v>-6776.099999999997</v>
       </c>
       <c r="AE254">
-        <v>0</v>
+        <v>-9654.999999999995</v>
       </c>
       <c r="AF254">
-        <v>0</v>
+        <v>-12533.89999999999</v>
       </c>
       <c r="AG254">
-        <v>0</v>
+        <v>-15412.79999999999</v>
       </c>
       <c r="AH254">
         <v>3.6</v>
@@ -23965,22 +23965,22 @@
         <v>1361</v>
       </c>
       <c r="AB256">
-        <v>0</v>
+        <v>-3044.333333639695</v>
       </c>
       <c r="AC256">
-        <v>0</v>
+        <v>-7449.666667279391</v>
       </c>
       <c r="AD256">
-        <v>0</v>
+        <v>-11855.00000091909</v>
       </c>
       <c r="AE256">
-        <v>0</v>
+        <v>-16260.33333455878</v>
       </c>
       <c r="AF256">
-        <v>0</v>
+        <v>-20665.66666819848</v>
       </c>
       <c r="AG256">
-        <v>0</v>
+        <v>-25071.00000183818</v>
       </c>
       <c r="AH256">
         <v>572</v>
@@ -24102,22 +24102,22 @@
         <v>28884.16534880611</v>
       </c>
       <c r="AI257">
-        <v>0</v>
+        <v>-14146.66930238777</v>
       </c>
       <c r="AJ257">
-        <v>0</v>
+        <v>-57177.50395358166</v>
       </c>
       <c r="AK257">
-        <v>0</v>
+        <v>-100208.3386047755</v>
       </c>
       <c r="AL257">
-        <v>0</v>
+        <v>-143239.1732559694</v>
       </c>
       <c r="AM257">
-        <v>0</v>
+        <v>-186270.0079071633</v>
       </c>
       <c r="AN257">
-        <v>0</v>
+        <v>-229300.8425583572</v>
       </c>
       <c r="AO257">
         <v>21321481</v>
@@ -24200,19 +24200,19 @@
         <v>16684.83333376261</v>
       </c>
       <c r="AC258">
-        <v>0</v>
+        <v>-24275.33333247478</v>
       </c>
       <c r="AD258">
-        <v>0</v>
+        <v>-65235.49999871217</v>
       </c>
       <c r="AE258">
-        <v>0</v>
+        <v>-106195.6666649496</v>
       </c>
       <c r="AF258">
-        <v>0</v>
+        <v>-147155.833331187</v>
       </c>
       <c r="AG258">
-        <v>0</v>
+        <v>-188115.9999974243</v>
       </c>
       <c r="AH258">
         <v>5585</v>
